--- a/ky/downloads/data-excel/2.c.1.1b.xlsx
+++ b/ky/downloads/data-excel/2.c.1.1b.xlsx
@@ -362,7 +362,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -438,6 +438,15 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="24">
@@ -766,20 +775,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S24"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="3" width="37.5703125" style="4" customWidth="1"/>
-    <col min="4" max="15" width="9.28515625" style="4" customWidth="1"/>
-    <col min="16" max="16384" width="8.85546875" style="4"/>
+    <col min="4" max="20" width="8.42578125" style="4" customWidth="1"/>
+    <col min="21" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="45" customHeight="1">
+    <row r="1" spans="1:20" ht="45" customHeight="1">
       <c r="A1" s="19" t="s">
         <v>37</v>
       </c>
@@ -793,7 +800,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:19" ht="18" customHeight="1">
+    <row r="2" spans="1:20" ht="18" customHeight="1">
       <c r="A2" s="24" t="s">
         <v>35</v>
       </c>
@@ -807,14 +814,14 @@
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1">
+    <row r="3" spans="1:20" ht="15" customHeight="1" thickBot="1">
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="1"/>
       <c r="E3" s="3"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:19" ht="18" customHeight="1" thickBot="1">
+    <row r="4" spans="1:20" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="11" t="s">
         <v>10</v>
       </c>
@@ -872,8 +879,11 @@
       <c r="S4" s="13">
         <v>2022</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" ht="12.95" customHeight="1">
+      <c r="T4" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="14.25" customHeight="1">
       <c r="A5" s="14" t="s">
         <v>32</v>
       </c>
@@ -931,8 +941,11 @@
       <c r="S5" s="25">
         <v>115.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" ht="12.95" customHeight="1">
+      <c r="T5" s="26">
+        <v>103.3752971770694</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="14.25" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
@@ -990,8 +1003,11 @@
       <c r="S6" s="4">
         <v>115.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" ht="12.95" customHeight="1">
+      <c r="T6" s="27">
+        <v>104.28289267885566</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="14.25" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -1049,8 +1065,11 @@
       <c r="S7" s="4">
         <v>115.4</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" ht="12.95" customHeight="1">
+      <c r="T7" s="27">
+        <v>105.54952929965596</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="14.25" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
@@ -1108,8 +1127,11 @@
       <c r="S8" s="4">
         <v>111.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" ht="12.95" customHeight="1">
+      <c r="T8" s="27">
+        <v>103.51673393645765</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="14.25" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
@@ -1167,8 +1189,11 @@
       <c r="S9" s="4">
         <v>116.8</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" ht="12.95" customHeight="1">
+      <c r="T9" s="27">
+        <v>106.47711005273266</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="14.25" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
@@ -1226,8 +1251,11 @@
       <c r="S10" s="4">
         <v>108.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" ht="12.95" customHeight="1">
+      <c r="T10" s="27">
+        <v>107.06485907396235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="14.25" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
@@ -1285,8 +1313,11 @@
       <c r="S11" s="4">
         <v>111</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" ht="12.95" customHeight="1">
+      <c r="T11" s="27">
+        <v>109.45786616400459</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="14.25" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>24</v>
       </c>
@@ -1344,8 +1375,11 @@
       <c r="S12" s="4">
         <v>115.8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" ht="12.95" customHeight="1">
+      <c r="T12" s="27">
+        <v>101.11876601355125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="14.25" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>26</v>
       </c>
@@ -1403,8 +1437,11 @@
       <c r="S13" s="4">
         <v>117.9</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" ht="12.95" customHeight="1" thickBot="1">
+      <c r="T13" s="27">
+        <v>102.74015470892634</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
       <c r="A14" s="17" t="s">
         <v>29</v>
       </c>
@@ -1462,9 +1499,12 @@
       <c r="S14" s="10">
         <v>112.4</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" ht="12.95" customHeight="1"/>
-    <row r="16" spans="1:19">
+      <c r="T14" s="28">
+        <v>103.21772010523679</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="12.95" customHeight="1"/>
+    <row r="16" spans="1:20">
       <c r="B16" s="21"/>
     </row>
     <row r="17" spans="2:2">
